--- a/bin/mia-result/Pairwise_Gaussian_sdims/PG_3/PG_3.xlsx
+++ b/bin/mia-result/Pairwise_Gaussian_sdims/PG_3/PG_3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\MIALab_project\bin\mia-result\Pairwise_Gaussian_sdims\PG_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E740C3B2-821A-43F1-929D-BE810C0DD944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FE203E-778E-46D9-86A0-033434B02CDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -97,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -931,16 +942,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K2" sqref="K2:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>117122</v>
       </c>
@@ -992,8 +1003,24 @@
         <f>AVERAGE(C7,C17,C27,C37,C47,C57,C67,C77,C87,C97)</f>
         <v>0.69382620979207221</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K2">
+        <f t="shared" ref="K1:L11" si="0">AVERAGE(C2,C12,C22,C32,C42,C52,C62,C72,C82,C92)</f>
+        <v>0.55271257698961185</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L6" si="1">_xlfn.STDEV.S(C2,C12,C22,C32,C42,C52,C62,C72,C82,C92)</f>
+        <v>5.2550071901294591E-2</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(D2,D12,D22,D32,D42,D52,D62,D72,D82,D92)</f>
+        <v>12.412949875576762</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N6" si="2">_xlfn.STDEV.S(D2,D12,D22,D32,D42,D52,D62,D72,D82,D92)</f>
+        <v>1.3410921695138585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>117122</v>
       </c>
@@ -1019,8 +1046,24 @@
         <f>_xlfn.STDEV.S(C7,C17,C27,C37,C47,C57,C67,C77,C87,C97)</f>
         <v>4.6290992134181516E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0.72548295487303271</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>8.4690458747613481E-3</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE(D3,D13,D23,D33,D43,D53,D63,D73,D83,D93)</f>
+        <v>2.0921625697782753</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="2"/>
+        <v>0.15935906911667846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>117122</v>
       </c>
@@ -1046,8 +1089,24 @@
         <f>AVERAGE(D7,D17,D27,D37,D47,D57,D67,D77,D87,D97)</f>
         <v>5.9115820977729143</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.5389688345683501</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>2.1900714044730114E-2</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(D4,D14,D24,D34,D44,D54,D64,D74,D84,D94)</f>
+        <v>13.052354422573458</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>1.0198278871815365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>117122</v>
       </c>
@@ -1073,8 +1132,24 @@
         <f>_xlfn.STDEV.S(D7,D17,D27,D37,D47,D57,D67,D77,D87,D97)</f>
         <v>2.6568981708607251</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.74734243850424564</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>3.2515316155111731E-2</v>
+      </c>
+      <c r="M5">
+        <f>AVERAGE(D5,D15,D25,D35,D45,D55,D65,D75,D85,D95)</f>
+        <v>14.745540742749878</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1.1397018147559381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>117122</v>
       </c>
@@ -1100,8 +1175,24 @@
         <f>AVERAGE(C8,C18,C28,C38,C48,C58,C68,C78,C88,C98)</f>
         <v>0.67309381137727109</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.8249750427971092</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>2.0145186737877872E-2</v>
+      </c>
+      <c r="M6">
+        <f>AVERAGE(D6,D16,D26,D36,D46,D56,D66,D76,D86,D96)</f>
+        <v>2.7193485306737939</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.34179846030840683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1218,24 @@
         <f>_xlfn.STDEV.S(C8,C18,C28,C38,C48,C58,C68,C78,C88,C98)</f>
         <v>1.0732975454748035E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K7">
+        <f>AVERAGE(C7,C17,C27,C37,C47,C57,C67,C77,C87,C97)</f>
+        <v>0.69382620979207221</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.STDEV.S(C7,C17,C27,C37,C47,C57,C67,C77,C87,C97)</f>
+        <v>4.6290992134181516E-2</v>
+      </c>
+      <c r="M7">
+        <f>AVERAGE(D7,D17,D27,D37,D47,D57,D67,D77,D87,D97)</f>
+        <v>5.9115820977729143</v>
+      </c>
+      <c r="N7">
+        <f>_xlfn.STDEV.S(D7,D17,D27,D37,D47,D57,D67,D77,D87,D97)</f>
+        <v>2.6568981708607251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1154,8 +1261,24 @@
         <f>AVERAGE(D8,D18,D28,D38,D48,D58,D68,D78,D88,D98)</f>
         <v>5.6574324106667451</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.67309381137727109</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L11" si="3">_xlfn.STDEV.S(C8,C18,C28,C38,C48,C58,C68,C78,C88,C98)</f>
+        <v>1.0732975454748035E-2</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(D8,D18,D28,D38,D48,D58,D68,D78,D88,D98)</f>
+        <v>5.6574324106667451</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N11" si="4">_xlfn.STDEV.S(D8,D18,D28,D38,D48,D58,D68,D78,D88,D98)</f>
+        <v>1.1988228108984489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1181,8 +1304,24 @@
         <f>_xlfn.STDEV.S(D8,D18,D28,D38,D48,D58,D68,D78,D88,D98)</f>
         <v>1.1988228108984489</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.68155192056149161</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>3.1141013103736286E-2</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGE(D9,D19,D29,D39,D49,D59,D69,D79,D89,D99)</f>
+        <v>4.2699171459668257</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0.43180186631588174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1208,8 +1347,24 @@
         <f>AVERAGE(C9,C19,C29,C39,C49,C59,C69,C79,C89,C99)</f>
         <v>0.68155192056149161</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.80872205025131172</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>3.213976936009421E-2</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGE(D10,D20,D30,D40,D50,D60,D70,D80,D90,D100)</f>
+        <v>4.1011603144434057</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>0.80310790421713285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1235,8 +1390,24 @@
         <f>_xlfn.STDEV.S(C9,C19,C29,C39,C49,C59,C69,C79,C89,C99)</f>
         <v>3.1141013103736286E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.83686098242201512</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>1.3842758739872592E-2</v>
+      </c>
+      <c r="M11">
+        <f>AVERAGE(D11,D21,D31,D41,D51,D61,D71,D81,D91,D101)</f>
+        <v>2.9430899312612295</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>0.20607888594408189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>118528</v>
       </c>
@@ -1263,7 +1434,7 @@
         <v>4.2699171459668257</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>118528</v>
       </c>
@@ -1290,7 +1461,7 @@
         <v>0.43180186631588174</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>118528</v>
       </c>
@@ -1317,7 +1488,7 @@
         <v>0.80872205025131172</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>118528</v>
       </c>
@@ -1344,7 +1515,7 @@
         <v>3.213976936009421E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>118528</v>
       </c>
